--- a/ut1/Contenidos/algoritmos_cpu.xlsx
+++ b/ut1/Contenidos/algoritmos_cpu.xlsx
@@ -15,6 +15,9 @@
     <sheet name="RR" sheetId="1" r:id="rId1"/>
     <sheet name="FCFS" sheetId="2" r:id="rId2"/>
     <sheet name="SPN-SJF" sheetId="3" r:id="rId3"/>
+    <sheet name="RR2" sheetId="4" r:id="rId4"/>
+    <sheet name="FCFS2" sheetId="5" r:id="rId5"/>
+    <sheet name="SPN-SJF2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="22">
   <si>
     <t>Proceso</t>
   </si>
@@ -73,10 +76,25 @@
     <t>Tiempo Respuesta = Tin - Tllegada</t>
   </si>
   <si>
-    <t xml:space="preserve">Throughput = </t>
+    <t>Throughput = Nº_Procesos_Completos / Tiempo_Total</t>
   </si>
   <si>
-    <t>Ttat (Tiempo de Retorno) = Tfin - Tllegada</t>
+    <t>Ttat (Turnarroundtime o Tiempo de Retorno) = Tfin - Tllegada</t>
+  </si>
+  <si>
+    <t>Utilización del Procesador o Pu = Tproc_ocupado / (Tproc_ocupado + Tproc_desocupado)</t>
+  </si>
+  <si>
+    <t>Q=1</t>
+  </si>
+  <si>
+    <t>FCFS</t>
+  </si>
+  <si>
+    <t>SJF</t>
+  </si>
+  <si>
+    <t>SPN</t>
   </si>
 </sst>
 </file>
@@ -506,7 +524,7 @@
   <dimension ref="A4:AK17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,18 +566,10 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
@@ -586,18 +596,10 @@
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5">
-        <v>8</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
@@ -624,18 +626,10 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
@@ -662,17 +656,12 @@
       <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -685,18 +674,10 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -746,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="P12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>8</v>
@@ -887,26 +868,16 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>8</v>
@@ -916,9 +887,7 @@
       <c r="T14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
         <v>8</v>
       </c>
@@ -927,6 +896,1115 @@
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="L16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AK17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="9.21875" customWidth="1"/>
+    <col min="9" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="L16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AK17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:AQ20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="9.21875" customWidth="1"/>
+    <col min="9" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="L16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AK17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="9.21875" customWidth="1"/>
+    <col min="9" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>3</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="12">
+        <v>6</v>
+      </c>
+      <c r="O13" s="12">
+        <v>7</v>
+      </c>
+      <c r="P13" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>16</v>
+      </c>
+      <c r="Y13">
+        <v>17</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>19</v>
+      </c>
+      <c r="AB13">
+        <v>20</v>
+      </c>
+      <c r="AC13">
+        <v>21</v>
+      </c>
+      <c r="AD13">
+        <v>22</v>
+      </c>
+      <c r="AE13">
+        <v>23</v>
+      </c>
+      <c r="AF13">
+        <v>24</v>
+      </c>
+      <c r="AG13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -940,31 +2018,47 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -972,11 +2066,33 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -993,12 +2109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AK17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,23 +2151,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,23 +2183,17 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1111,23 +2215,17 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
         <v>4</v>
       </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,22 +2247,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1172,23 +2267,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
-        <v>13</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5">
         <v>15</v>
       </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -1216,57 +2305,23 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -1282,7 +2337,7 @@
     </row>
     <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1292,86 +2347,18 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="12">
-        <v>3</v>
-      </c>
-      <c r="L13" s="12">
-        <v>4</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5</v>
-      </c>
-      <c r="N13" s="12">
-        <v>6</v>
-      </c>
-      <c r="O13" s="12">
-        <v>7</v>
-      </c>
-      <c r="P13" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
-      </c>
-      <c r="S13">
-        <v>11</v>
-      </c>
-      <c r="T13">
-        <v>12</v>
-      </c>
-      <c r="U13">
-        <v>13</v>
-      </c>
-      <c r="V13">
-        <v>14</v>
-      </c>
-      <c r="W13">
-        <v>15</v>
-      </c>
-      <c r="X13">
-        <v>16</v>
-      </c>
-      <c r="Y13">
-        <v>17</v>
-      </c>
-      <c r="Z13">
-        <v>18</v>
-      </c>
-      <c r="AA13">
-        <v>19</v>
-      </c>
-      <c r="AB13">
-        <v>20</v>
-      </c>
-      <c r="AC13">
-        <v>21</v>
-      </c>
-      <c r="AD13">
-        <v>22</v>
-      </c>
-      <c r="AE13">
-        <v>23</v>
-      </c>
-      <c r="AF13">
-        <v>24</v>
-      </c>
-      <c r="AG13">
-        <v>25</v>
-      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1379,46 +2366,24 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -1431,21 +2396,11 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
@@ -1456,7 +2411,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1464,11 +2419,17 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="L16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -1485,12 +2446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,23 +2488,15 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,23 +2518,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1603,23 +2548,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1641,22 +2578,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1664,23 +2596,15 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -1708,57 +2632,23 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -1774,7 +2664,7 @@
     </row>
     <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1784,86 +2674,18 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="12">
-        <v>3</v>
-      </c>
-      <c r="L13" s="12">
-        <v>4</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5</v>
-      </c>
-      <c r="N13" s="12">
-        <v>6</v>
-      </c>
-      <c r="O13" s="12">
-        <v>7</v>
-      </c>
-      <c r="P13" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
-      </c>
-      <c r="S13">
-        <v>11</v>
-      </c>
-      <c r="T13">
-        <v>12</v>
-      </c>
-      <c r="U13">
-        <v>13</v>
-      </c>
-      <c r="V13">
-        <v>14</v>
-      </c>
-      <c r="W13">
-        <v>15</v>
-      </c>
-      <c r="X13">
-        <v>16</v>
-      </c>
-      <c r="Y13">
-        <v>17</v>
-      </c>
-      <c r="Z13">
-        <v>18</v>
-      </c>
-      <c r="AA13">
-        <v>19</v>
-      </c>
-      <c r="AB13">
-        <v>20</v>
-      </c>
-      <c r="AC13">
-        <v>21</v>
-      </c>
-      <c r="AD13">
-        <v>22</v>
-      </c>
-      <c r="AE13">
-        <v>23</v>
-      </c>
-      <c r="AF13">
-        <v>24</v>
-      </c>
-      <c r="AG13">
-        <v>25</v>
-      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1871,46 +2693,24 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -1923,21 +2723,11 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
@@ -1948,7 +2738,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1956,11 +2746,17 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="L16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>

--- a/ut1/Contenidos/algoritmos_cpu.xlsx
+++ b/ut1/Contenidos/algoritmos_cpu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RR" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="RR2" sheetId="4" r:id="rId4"/>
     <sheet name="FCFS2" sheetId="5" r:id="rId5"/>
     <sheet name="SPN-SJF2" sheetId="6" r:id="rId6"/>
+    <sheet name="RR3-q=1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="24">
   <si>
     <t>Proceso</t>
   </si>
@@ -96,12 +97,18 @@
   <si>
     <t>SPN</t>
   </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +146,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +178,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +281,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK17"/>
+  <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H10" sqref="H10:AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,7 +1030,7 @@
     <col min="9" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1083,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1113,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1143,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1176,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1122,55 +1184,177 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="14"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18">
+        <v>4</v>
+      </c>
+      <c r="N12" s="18">
+        <v>5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>6</v>
+      </c>
+      <c r="P12" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>8</v>
+      </c>
+      <c r="R12" s="18">
+        <v>9</v>
+      </c>
+      <c r="S12" s="18">
+        <v>10</v>
+      </c>
+      <c r="T12" s="18">
+        <v>11</v>
+      </c>
+      <c r="U12" s="18">
+        <v>12</v>
+      </c>
+      <c r="V12" s="18">
+        <v>13</v>
+      </c>
+      <c r="W12" s="18">
+        <v>14</v>
+      </c>
+      <c r="X12" s="18">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>25</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>26</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="14"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1179,20 +1363,45 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1200,25 +1409,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1226,25 +1449,37 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1273,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK17"/>
+  <dimension ref="A4:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:AQ20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1520,7 @@
     <col min="9" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1573,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1603,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1633,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1666,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1439,55 +1674,177 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="14"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18">
+        <v>4</v>
+      </c>
+      <c r="N12" s="18">
+        <v>5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>6</v>
+      </c>
+      <c r="P12" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>8</v>
+      </c>
+      <c r="R12" s="18">
+        <v>9</v>
+      </c>
+      <c r="S12" s="18">
+        <v>10</v>
+      </c>
+      <c r="T12" s="18">
+        <v>11</v>
+      </c>
+      <c r="U12" s="18">
+        <v>12</v>
+      </c>
+      <c r="V12" s="18">
+        <v>13</v>
+      </c>
+      <c r="W12" s="18">
+        <v>14</v>
+      </c>
+      <c r="X12" s="18">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>25</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>26</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="14"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1496,20 +1853,45 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1517,25 +1899,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1543,25 +1939,37 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1593,7 +2001,7 @@
   <dimension ref="A4:AK17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H10" sqref="H10:AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK17"/>
+  <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H10" sqref="H10:AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2123,7 +2531,7 @@
     <col min="9" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2586,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2618,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2650,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2687,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2287,55 +2695,177 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="14"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18">
+        <v>4</v>
+      </c>
+      <c r="N12" s="18">
+        <v>5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>6</v>
+      </c>
+      <c r="P12" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>8</v>
+      </c>
+      <c r="R12" s="18">
+        <v>9</v>
+      </c>
+      <c r="S12" s="18">
+        <v>10</v>
+      </c>
+      <c r="T12" s="18">
+        <v>11</v>
+      </c>
+      <c r="U12" s="18">
+        <v>12</v>
+      </c>
+      <c r="V12" s="18">
+        <v>13</v>
+      </c>
+      <c r="W12" s="18">
+        <v>14</v>
+      </c>
+      <c r="X12" s="18">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>25</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>26</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="14"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2344,20 +2874,45 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2365,27 +2920,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2393,25 +2960,37 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:37" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2448,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK17"/>
+  <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+      <selection activeCell="H10" sqref="H10:AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,7 +3039,7 @@
     <col min="9" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2513,7 +3092,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +3122,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2573,7 +3152,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2591,7 +3170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2606,7 +3185,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2614,55 +3193,177 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="14"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18">
+        <v>4</v>
+      </c>
+      <c r="N12" s="18">
+        <v>5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>6</v>
+      </c>
+      <c r="P12" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>8</v>
+      </c>
+      <c r="R12" s="18">
+        <v>9</v>
+      </c>
+      <c r="S12" s="18">
+        <v>10</v>
+      </c>
+      <c r="T12" s="18">
+        <v>11</v>
+      </c>
+      <c r="U12" s="18">
+        <v>12</v>
+      </c>
+      <c r="V12" s="18">
+        <v>13</v>
+      </c>
+      <c r="W12" s="18">
+        <v>14</v>
+      </c>
+      <c r="X12" s="18">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>25</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>26</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="14"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
@@ -2671,20 +3372,45 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2692,27 +3418,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2720,25 +3458,37 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:37" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2771,4 +3521,645 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AN17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13:AK13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="9.21875" customWidth="1"/>
+    <col min="9" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+    </row>
+    <row r="11" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+    </row>
+    <row r="12" spans="1:40" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+    </row>
+    <row r="13" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21">
+        <v>3</v>
+      </c>
+      <c r="M13" s="21">
+        <v>4</v>
+      </c>
+      <c r="N13" s="21">
+        <v>5</v>
+      </c>
+      <c r="O13" s="21">
+        <v>6</v>
+      </c>
+      <c r="P13" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>8</v>
+      </c>
+      <c r="R13" s="21">
+        <v>9</v>
+      </c>
+      <c r="S13" s="21">
+        <v>10</v>
+      </c>
+      <c r="T13" s="21">
+        <v>11</v>
+      </c>
+      <c r="U13" s="21">
+        <v>12</v>
+      </c>
+      <c r="V13" s="21">
+        <v>13</v>
+      </c>
+      <c r="W13" s="21">
+        <v>14</v>
+      </c>
+      <c r="X13" s="21">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>19</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+    </row>
+    <row r="14" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+    </row>
+    <row r="15" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:40" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+    </row>
+    <row r="17" spans="3:37" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ut1/Contenidos/algoritmos_cpu.xlsx
+++ b/ut1/Contenidos/algoritmos_cpu.xlsx
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +316,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3030,7 +3074,7 @@
   <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:AL15"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3225,46 +3269,46 @@
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
     </row>
-    <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
+      <c r="I11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
       <c r="AL11" s="14"/>
     </row>
     <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3375,42 +3419,42 @@
       <c r="H13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
+      <c r="I13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
       <c r="AL13" s="14"/>
     </row>
-    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3418,39 +3462,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-    </row>
-    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3458,35 +3502,35 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
     </row>
     <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -3495,18 +3539,35 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -3525,10 +3586,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AN17"/>
+  <dimension ref="A4:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13:AK13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3939,78 +4000,78 @@
       <c r="H14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="17" t="s">
+      <c r="I14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="17" t="s">
+      <c r="N14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="17" t="s">
+      <c r="Q14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="17" t="s">
+      <c r="V14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="X14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="17" t="s">
+      <c r="X14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Z14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="17" t="s">
+      <c r="Z14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
       <c r="AL14" s="14"/>
       <c r="AM14" s="14"/>
       <c r="AN14" s="14"/>
     </row>
-    <row r="15" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4018,145 +4079,176 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="13" t="s">
+      <c r="M15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="13" t="s">
+      <c r="P15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="13" t="s">
+      <c r="W15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="13" t="s">
+      <c r="Y15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-    </row>
-    <row r="16" spans="1:40" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+    </row>
+    <row r="16" spans="1:40" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="13" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-    </row>
-    <row r="17" spans="3:37" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+    </row>
+    <row r="17" spans="3:37" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+    </row>
+    <row r="18" spans="3:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ut1/Contenidos/algoritmos_cpu.xlsx
+++ b/ut1/Contenidos/algoritmos_cpu.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>Proceso</t>
   </si>
@@ -74,15 +74,6 @@
     <t>T. Lleg</t>
   </si>
   <si>
-    <t>Tiempo Respuesta = Tin - Tllegada</t>
-  </si>
-  <si>
-    <t>Throughput = Nº_Procesos_Completos / Tiempo_Total</t>
-  </si>
-  <si>
-    <t>Ttat (Turnarroundtime o Tiempo de Retorno) = Tfin - Tllegada</t>
-  </si>
-  <si>
     <t>Utilización del Procesador o Pu = Tproc_ocupado / (Tproc_ocupado + Tproc_desocupado)</t>
   </si>
   <si>
@@ -103,12 +94,24 @@
   <si>
     <t>COLA</t>
   </si>
+  <si>
+    <t>SECUENCIA</t>
+  </si>
+  <si>
+    <t>Tret = Ttat (Turnarroundtime o Tiempo de Retorno) = Tfin - Tllegada</t>
+  </si>
+  <si>
+    <t>Th = Throughput = Nº_Procesos_Completos / Tiempo_Total</t>
+  </si>
+  <si>
+    <t>Tr =Tiempo Respuesta = Tin - Tllegada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,13 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,18 +170,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -277,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,62 +271,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -627,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK17"/>
+  <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="L5" sqref="L5:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +599,7 @@
     <col min="9" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -662,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -677,7 +637,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -692,7 +652,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -707,7 +667,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -722,7 +682,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -737,7 +697,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -752,7 +712,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -767,10 +727,10 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -785,7 +745,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -793,90 +753,119 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="11" t="s">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="10"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4"/>
@@ -884,87 +873,92 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="K13" s="12">
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="17">
         <v>4</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="17">
         <v>5</v>
       </c>
-      <c r="N13" s="12">
+      <c r="O13" s="17">
         <v>6</v>
       </c>
-      <c r="O13" s="12">
+      <c r="P13" s="17">
         <v>7</v>
       </c>
-      <c r="P13" s="12">
+      <c r="Q13" s="17">
         <v>8</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="R13" s="17">
         <v>9</v>
       </c>
-      <c r="R13">
+      <c r="S13" s="17">
         <v>10</v>
       </c>
-      <c r="S13">
+      <c r="T13" s="17">
         <v>11</v>
       </c>
-      <c r="T13">
+      <c r="U13" s="17">
         <v>12</v>
       </c>
-      <c r="U13">
+      <c r="V13" s="17">
         <v>13</v>
       </c>
-      <c r="V13">
+      <c r="W13" s="17">
         <v>14</v>
       </c>
-      <c r="W13">
+      <c r="X13" s="17">
         <v>15</v>
       </c>
-      <c r="X13">
+      <c r="Y13" s="17">
         <v>16</v>
       </c>
-      <c r="Y13">
+      <c r="Z13" s="17">
         <v>17</v>
       </c>
-      <c r="Z13">
+      <c r="AA13" s="17">
         <v>18</v>
       </c>
-      <c r="AA13">
+      <c r="AB13" s="17">
         <v>19</v>
       </c>
-      <c r="AB13">
+      <c r="AC13" s="17">
         <v>20</v>
       </c>
-      <c r="AC13">
+      <c r="AD13" s="17">
         <v>21</v>
       </c>
-      <c r="AD13">
+      <c r="AE13" s="17">
         <v>22</v>
       </c>
-      <c r="AE13">
+      <c r="AF13" s="17">
         <v>23</v>
       </c>
-      <c r="AF13">
+      <c r="AG13" s="17">
         <v>24</v>
       </c>
-      <c r="AG13">
+      <c r="AH13" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="10"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4"/>
@@ -972,38 +966,43 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12" t="s">
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="10"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1011,48 +1010,109 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+    </row>
+    <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+    </row>
+    <row r="17" spans="3:37" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,7 +1125,7 @@
   <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:AL15"/>
+      <selection activeCell="L5" sqref="L5:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1172,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1142,7 +1202,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1172,7 +1232,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1202,7 +1262,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1229,36 +1289,36 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
@@ -1267,40 +1327,40 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="14"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="10"/>
     </row>
     <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
@@ -1309,98 +1369,98 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="14">
         <v>2</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="14">
         <v>3</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="14">
         <v>4</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="14">
         <v>5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="14">
         <v>6</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="14">
         <v>7</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="14">
         <v>8</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="14">
         <v>9</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="14">
         <v>10</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="14">
         <v>11</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="14">
         <v>12</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="14">
         <v>13</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="14">
         <v>14</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="14">
         <v>15</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="14">
         <v>16</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="14">
         <v>17</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="14">
         <v>18</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="14">
         <v>19</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="14">
         <v>20</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="14">
         <v>21</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="14">
         <v>22</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12" s="14">
         <v>23</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AG12" s="14">
         <v>24</v>
       </c>
-      <c r="AH12" s="18">
+      <c r="AH12" s="14">
         <v>25</v>
       </c>
-      <c r="AI12" s="18">
+      <c r="AI12" s="14">
         <v>26</v>
       </c>
-      <c r="AJ12" s="18">
+      <c r="AJ12" s="14">
         <v>27</v>
       </c>
-      <c r="AK12" s="18">
+      <c r="AK12" s="14">
         <v>28</v>
       </c>
-      <c r="AL12" s="14"/>
+      <c r="AL12" s="10"/>
     </row>
     <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="8" t="s">
-        <v>19</v>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1408,82 +1468,82 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
     </row>
     <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
@@ -1493,35 +1553,35 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -1531,9 +1591,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="L16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -1555,7 +1615,7 @@
   <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:AL15"/>
+      <selection activeCell="L5" sqref="L5:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1662,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1632,7 +1692,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1662,7 +1722,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1692,7 +1752,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -1719,36 +1779,36 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
@@ -1757,40 +1817,40 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="14"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="10"/>
     </row>
     <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
@@ -1799,98 +1859,98 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="14">
         <v>2</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="14">
         <v>3</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="14">
         <v>4</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="14">
         <v>5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="14">
         <v>6</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="14">
         <v>7</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="14">
         <v>8</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="14">
         <v>9</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="14">
         <v>10</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="14">
         <v>11</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="14">
         <v>12</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="14">
         <v>13</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="14">
         <v>14</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="14">
         <v>15</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="14">
         <v>16</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="14">
         <v>17</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="14">
         <v>18</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="14">
         <v>19</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="14">
         <v>20</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="14">
         <v>21</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="14">
         <v>22</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12" s="14">
         <v>23</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AG12" s="14">
         <v>24</v>
       </c>
-      <c r="AH12" s="18">
+      <c r="AH12" s="14">
         <v>25</v>
       </c>
-      <c r="AI12" s="18">
+      <c r="AI12" s="14">
         <v>26</v>
       </c>
-      <c r="AJ12" s="18">
+      <c r="AJ12" s="14">
         <v>27</v>
       </c>
-      <c r="AK12" s="18">
+      <c r="AK12" s="14">
         <v>28</v>
       </c>
-      <c r="AL12" s="14"/>
+      <c r="AL12" s="10"/>
     </row>
     <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="8" t="s">
-        <v>21</v>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1898,82 +1958,82 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
     </row>
     <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
@@ -1983,35 +2043,35 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -2021,9 +2081,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="L16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -2042,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK17"/>
+  <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:AJ18"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,7 +2114,7 @@
     <col min="9" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2088,13 +2148,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2109,7 +2167,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2120,13 +2178,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>15</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2141,7 +2197,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2152,13 +2208,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>17</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2173,7 +2227,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2184,16 +2238,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>19</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2204,13 +2256,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>15</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2218,96 +2268,119 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="10"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4"/>
@@ -2315,150 +2388,136 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="K13" s="12">
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="17">
         <v>4</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="17">
         <v>5</v>
       </c>
-      <c r="N13" s="12">
+      <c r="O13" s="17">
         <v>6</v>
       </c>
-      <c r="O13" s="12">
+      <c r="P13" s="17">
         <v>7</v>
       </c>
-      <c r="P13" s="12">
+      <c r="Q13" s="17">
         <v>8</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="R13" s="17">
         <v>9</v>
       </c>
-      <c r="R13">
+      <c r="S13" s="17">
         <v>10</v>
       </c>
-      <c r="S13">
+      <c r="T13" s="17">
         <v>11</v>
       </c>
-      <c r="T13">
+      <c r="U13" s="17">
         <v>12</v>
       </c>
-      <c r="U13">
+      <c r="V13" s="17">
         <v>13</v>
       </c>
-      <c r="V13">
+      <c r="W13" s="17">
         <v>14</v>
       </c>
-      <c r="W13">
+      <c r="X13" s="17">
         <v>15</v>
       </c>
-      <c r="X13">
+      <c r="Y13" s="17">
         <v>16</v>
       </c>
-      <c r="Y13">
+      <c r="Z13" s="17">
         <v>17</v>
       </c>
-      <c r="Z13">
+      <c r="AA13" s="17">
         <v>18</v>
       </c>
-      <c r="AA13">
+      <c r="AB13" s="17">
         <v>19</v>
       </c>
-      <c r="AB13">
+      <c r="AC13" s="17">
         <v>20</v>
       </c>
-      <c r="AC13">
+      <c r="AD13" s="17">
         <v>21</v>
       </c>
-      <c r="AD13">
+      <c r="AE13" s="17">
         <v>22</v>
       </c>
-      <c r="AE13">
+      <c r="AF13" s="17">
         <v>23</v>
       </c>
-      <c r="AF13">
+      <c r="AG13" s="17">
         <v>24</v>
       </c>
-      <c r="AG13">
+      <c r="AH13" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>18</v>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="10"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="10"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2466,94 +2525,109 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+    </row>
+    <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+    </row>
+    <row r="17" spans="3:37" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2566,7 +2640,7 @@
   <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:AL15"/>
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,13 +2683,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2641,13 +2713,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>15</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2673,13 +2743,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>17</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2705,13 +2773,11 @@
         <v>5</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>19</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,9 +2791,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>15</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -2740,36 +2804,36 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="4"/>
@@ -2778,40 +2842,40 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="14"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="10"/>
     </row>
     <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
@@ -2820,98 +2884,98 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="14">
         <v>2</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="14">
         <v>3</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="14">
         <v>4</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="14">
         <v>5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="14">
         <v>6</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="14">
         <v>7</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="14">
         <v>8</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="14">
         <v>9</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="14">
         <v>10</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="14">
         <v>11</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="14">
         <v>12</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="14">
         <v>13</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="14">
         <v>14</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="14">
         <v>15</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="14">
         <v>16</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="14">
         <v>17</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="14">
         <v>18</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="14">
         <v>19</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="14">
         <v>20</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="14">
         <v>21</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="14">
         <v>22</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12" s="14">
         <v>23</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AG12" s="14">
         <v>24</v>
       </c>
-      <c r="AH12" s="18">
+      <c r="AH12" s="14">
         <v>25</v>
       </c>
-      <c r="AI12" s="18">
+      <c r="AI12" s="14">
         <v>26</v>
       </c>
-      <c r="AJ12" s="18">
+      <c r="AJ12" s="14">
         <v>27</v>
       </c>
-      <c r="AK12" s="18">
+      <c r="AK12" s="14">
         <v>28</v>
       </c>
-      <c r="AL12" s="14"/>
+      <c r="AL12" s="10"/>
     </row>
     <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="8" t="s">
-        <v>19</v>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2919,82 +2983,82 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
     </row>
     <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
@@ -3004,35 +3068,35 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
     </row>
     <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -3042,17 +3106,17 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -3074,7 +3138,7 @@
   <dimension ref="A4:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="L5" sqref="L5:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3121,7 +3185,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3151,7 +3215,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3181,7 +3245,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3211,7 +3275,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -3237,37 +3301,36 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
@@ -3276,223 +3339,214 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="14"/>
-    </row>
-    <row r="12" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
-        <v>2</v>
-      </c>
-      <c r="L12" s="18">
-        <v>3</v>
-      </c>
-      <c r="M12" s="18">
-        <v>4</v>
-      </c>
-      <c r="N12" s="18">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="18">
-        <v>6</v>
-      </c>
-      <c r="P12" s="18">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>8</v>
-      </c>
-      <c r="R12" s="18">
-        <v>9</v>
-      </c>
-      <c r="S12" s="18">
-        <v>10</v>
-      </c>
-      <c r="T12" s="18">
-        <v>11</v>
-      </c>
-      <c r="U12" s="18">
-        <v>12</v>
-      </c>
-      <c r="V12" s="18">
-        <v>13</v>
-      </c>
-      <c r="W12" s="18">
-        <v>14</v>
-      </c>
-      <c r="X12" s="18">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="18">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="10"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>18</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>19</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>20</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="18">
-        <v>22</v>
-      </c>
-      <c r="AF12" s="18">
-        <v>23</v>
-      </c>
-      <c r="AG12" s="18">
-        <v>24</v>
-      </c>
-      <c r="AH12" s="18">
-        <v>25</v>
-      </c>
-      <c r="AI12" s="18">
-        <v>26</v>
-      </c>
-      <c r="AJ12" s="18">
-        <v>27</v>
-      </c>
-      <c r="AK12" s="18">
-        <v>28</v>
-      </c>
-      <c r="AL12" s="14"/>
-    </row>
-    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17">
+        <v>3</v>
+      </c>
+      <c r="M13" s="17">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17">
+        <v>5</v>
+      </c>
+      <c r="O13" s="17">
+        <v>6</v>
+      </c>
+      <c r="P13" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>8</v>
+      </c>
+      <c r="R13" s="17">
+        <v>9</v>
+      </c>
+      <c r="S13" s="17">
+        <v>10</v>
+      </c>
+      <c r="T13" s="17">
+        <v>11</v>
+      </c>
+      <c r="U13" s="17">
+        <v>12</v>
+      </c>
+      <c r="V13" s="17">
+        <v>13</v>
+      </c>
+      <c r="W13" s="17">
+        <v>14</v>
+      </c>
+      <c r="X13" s="17">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>19</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="17">
         <v>23</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="14"/>
-    </row>
-    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="8"/>
+      <c r="AG13" s="17">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>25</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="10"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28" t="s">
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="10"/>
     </row>
     <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -3502,35 +3556,35 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
     </row>
     <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -3539,44 +3593,72 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+    </row>
+    <row r="17" spans="3:37" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3589,7 +3671,7 @@
   <dimension ref="A4:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L5" sqref="L5:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3636,7 +3718,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3666,7 +3748,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3696,7 +3778,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3726,7 +3808,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -3752,38 +3834,38 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
     </row>
     <row r="11" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
@@ -3792,38 +3874,38 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
     </row>
     <row r="12" spans="1:40" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="4"/>
@@ -3831,83 +3913,47 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
     </row>
     <row r="13" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3915,161 +3961,135 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="17">
         <v>4</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="17">
         <v>5</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="17">
         <v>6</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="17">
         <v>7</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="17">
         <v>8</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="17">
         <v>9</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="17">
         <v>10</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="17">
         <v>11</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="17">
         <v>12</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="17">
         <v>13</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="17">
         <v>14</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X13" s="17">
         <v>15</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="17">
         <v>16</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="17">
         <v>17</v>
       </c>
-      <c r="AA13" s="21">
+      <c r="AA13" s="17">
         <v>18</v>
       </c>
-      <c r="AB13" s="21">
+      <c r="AB13" s="17">
         <v>19</v>
       </c>
-      <c r="AC13" s="21">
+      <c r="AC13" s="17">
         <v>20</v>
       </c>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
+      <c r="AD13" s="17">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>23</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>25</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
     </row>
     <row r="14" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -4079,65 +4099,35 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
     </row>
     <row r="16" spans="1:40" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -4146,41 +4136,35 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
     </row>
     <row r="17" spans="3:37" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -4189,66 +4173,66 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
     </row>
     <row r="18" spans="3:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ut1/Contenidos/algoritmos_cpu.xlsx
+++ b/ut1/Contenidos/algoritmos_cpu.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RR" sheetId="1" r:id="rId1"/>
     <sheet name="FCFS" sheetId="2" r:id="rId2"/>
     <sheet name="SPN-SJF" sheetId="3" r:id="rId3"/>
-    <sheet name="RR2" sheetId="4" r:id="rId4"/>
-    <sheet name="FCFS2" sheetId="5" r:id="rId5"/>
-    <sheet name="SPN-SJF2" sheetId="6" r:id="rId6"/>
-    <sheet name="RR3-q=1" sheetId="7" r:id="rId7"/>
+    <sheet name="RR2 (q=1)" sheetId="4" r:id="rId4"/>
+    <sheet name="RR2 (q=4)" sheetId="8" r:id="rId5"/>
+    <sheet name="FCFS2" sheetId="5" r:id="rId6"/>
+    <sheet name="SPN-SJF2" sheetId="6" r:id="rId7"/>
+    <sheet name="RR3-q=1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
   <si>
     <t>Proceso</t>
   </si>
@@ -2102,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AL17"/>
+  <dimension ref="A4:AL18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,7 +2149,9 @@
         <v>3</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="L5" s="1" t="s">
@@ -2178,7 +2181,9 @@
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>18</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="L6" s="1" t="s">
@@ -2208,7 +2213,9 @@
         <v>4</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>17</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="L7" s="1" t="s">
@@ -2238,7 +2245,9 @@
         <v>5</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>20</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
@@ -2256,7 +2265,9 @@
         <v>2</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -2349,6 +2360,686 @@
       <c r="I12" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="J12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="10"/>
+    </row>
+    <row r="13" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17">
+        <v>3</v>
+      </c>
+      <c r="M13" s="17">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17">
+        <v>5</v>
+      </c>
+      <c r="O13" s="17">
+        <v>6</v>
+      </c>
+      <c r="P13" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>8</v>
+      </c>
+      <c r="R13" s="17">
+        <v>9</v>
+      </c>
+      <c r="S13" s="17">
+        <v>10</v>
+      </c>
+      <c r="T13" s="17">
+        <v>11</v>
+      </c>
+      <c r="U13" s="17">
+        <v>12</v>
+      </c>
+      <c r="V13" s="17">
+        <v>13</v>
+      </c>
+      <c r="W13" s="17">
+        <v>14</v>
+      </c>
+      <c r="X13" s="17">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>19</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>23</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>25</v>
+      </c>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="10"/>
+    </row>
+    <row r="14" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="10"/>
+    </row>
+    <row r="15" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+    </row>
+    <row r="16" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+    </row>
+    <row r="17" spans="3:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+    </row>
+    <row r="18" spans="3:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="Q18" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AL17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="9.21875" customWidth="1"/>
+    <col min="9" max="44" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -2635,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL17"/>
   <sheetViews>
@@ -3133,7 +3824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL17"/>
   <sheetViews>
@@ -3666,7 +4357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AN18"/>
   <sheetViews>
